--- a/users.xlsx
+++ b/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\uot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5C944C-6C01-4DB5-9825-A584B0626C14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115A3357-2DD8-4E1D-94AD-7A787F081989}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +80,12 @@
       <color rgb="FFCE9178"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -150,7 +156,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -163,6 +169,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -448,7 +457,7 @@
   <dimension ref="A1:H138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,12 +489,30 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="A2" s="2">
+        <v>1111</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1111</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2</v>
+      </c>
+      <c r="H2" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>

--- a/users.xlsx
+++ b/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\uot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115A3357-2DD8-4E1D-94AD-7A787F081989}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3049ADA4-EA4B-41DF-848E-3DDC264BC92D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,7 +505,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="5">
         <v>2</v>
@@ -1531,73 +1531,9 @@
       <c r="F129" s="2"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
+      <c r="A130" s="3"/>
       <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="3"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="3"/>
+      <c r="E130" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
